--- a/www/IndicatorsPerCountry/SouthKorea_GDPperCapita_TerritorialRef_1949_2012_CCode_410.xlsx
+++ b/www/IndicatorsPerCountry/SouthKorea_GDPperCapita_TerritorialRef_1949_2012_CCode_410.xlsx
@@ -345,13 +345,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SouthKorea_GDPperCapita_TerritorialRef_1949_2012_CCode_410.xlsx
+++ b/www/IndicatorsPerCountry/SouthKorea_GDPperCapita_TerritorialRef_1949_2012_CCode_410.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="126">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,286 +36,325 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>335.028508892</t>
+    <t>815.774301077617</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>337.272795701</t>
-  </si>
-  <si>
-    <t>455.120127843</t>
-  </si>
-  <si>
-    <t>470.889394974</t>
-  </si>
-  <si>
-    <t>485.452270101</t>
-  </si>
-  <si>
-    <t>503.652885054</t>
-  </si>
-  <si>
-    <t>585.094696814</t>
-  </si>
-  <si>
-    <t>568.454469805</t>
-  </si>
-  <si>
-    <t>624.466408891</t>
-  </si>
-  <si>
-    <t>667.978277582</t>
-  </si>
-  <si>
-    <t>706.20025562</t>
-  </si>
-  <si>
-    <t>609.706095548</t>
-  </si>
-  <si>
-    <t>652.480079125</t>
-  </si>
-  <si>
-    <t>594.481686312</t>
-  </si>
-  <si>
-    <t>631.443774077</t>
-  </si>
-  <si>
-    <t>630.183284838</t>
-  </si>
-  <si>
-    <t>625.017301543</t>
-  </si>
-  <si>
-    <t>643.034079401</t>
-  </si>
-  <si>
-    <t>665.282602326</t>
-  </si>
-  <si>
-    <t>664.405139232</t>
-  </si>
-  <si>
-    <t>624.005660578</t>
-  </si>
-  <si>
-    <t>585.817835152</t>
-  </si>
-  <si>
-    <t>584.09081141</t>
-  </si>
-  <si>
-    <t>580.228501648</t>
-  </si>
-  <si>
-    <t>696.193014632</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>746.639211339</t>
-  </si>
-  <si>
-    <t>802.328990678</t>
-  </si>
-  <si>
-    <t>871.857173588</t>
-  </si>
-  <si>
-    <t>903.770314984</t>
-  </si>
-  <si>
-    <t>803.680896965</t>
-  </si>
-  <si>
-    <t>893.330747084</t>
-  </si>
-  <si>
-    <t>853.890220707</t>
-  </si>
-  <si>
-    <t>787.021041053</t>
-  </si>
-  <si>
-    <t>835.275841767</t>
-  </si>
-  <si>
-    <t>1071.67629355</t>
-  </si>
-  <si>
-    <t>1123.95617521</t>
-  </si>
-  <si>
-    <t>1168.85644164</t>
-  </si>
-  <si>
-    <t>1148.86923235</t>
-  </si>
-  <si>
-    <t>1205.66690867</t>
-  </si>
-  <si>
-    <t>1233.82929335</t>
-  </si>
-  <si>
-    <t>1242.75931013</t>
-  </si>
-  <si>
-    <t>1226.38913434</t>
-  </si>
-  <si>
-    <t>1246.59158903</t>
-  </si>
-  <si>
-    <t>1245.17856662</t>
-  </si>
-  <si>
-    <t>1315.51888192</t>
-  </si>
-  <si>
-    <t>1389.65122927</t>
-  </si>
-  <si>
-    <t>1436.33513325</t>
-  </si>
-  <si>
-    <t>1569.33686642</t>
-  </si>
-  <si>
-    <t>1644.65168763</t>
-  </si>
-  <si>
-    <t>1812.0500681</t>
-  </si>
-  <si>
-    <t>2040.00760842</t>
-  </si>
-  <si>
-    <t>2167.33351943</t>
-  </si>
-  <si>
-    <t>2332.36018611</t>
-  </si>
-  <si>
-    <t>2456.4691837</t>
-  </si>
-  <si>
-    <t>2824.25967775</t>
-  </si>
-  <si>
-    <t>3015.24847227</t>
-  </si>
-  <si>
-    <t>3161.70176582</t>
-  </si>
-  <si>
-    <t>3476.40825432</t>
-  </si>
-  <si>
-    <t>3774.59106378</t>
-  </si>
-  <si>
-    <t>4063.91312569</t>
-  </si>
-  <si>
-    <t>4294.02674908</t>
-  </si>
-  <si>
-    <t>4114.10135348</t>
-  </si>
-  <si>
-    <t>4301.86194251</t>
-  </si>
-  <si>
-    <t>4557.29034227</t>
-  </si>
-  <si>
-    <t>5006.96567276</t>
-  </si>
-  <si>
-    <t>5374.6225808</t>
-  </si>
-  <si>
-    <t>5670.39160908</t>
-  </si>
-  <si>
-    <t>6262.96889407</t>
-  </si>
-  <si>
-    <t>6915.90985536</t>
-  </si>
-  <si>
-    <t>7620.58956484</t>
-  </si>
-  <si>
-    <t>8027.30335226</t>
-  </si>
-  <si>
-    <t>8704.42510905</t>
-  </si>
-  <si>
-    <t>9446.10983272</t>
-  </si>
-  <si>
-    <t>9877.38108708</t>
-  </si>
-  <si>
-    <t>10391.1696651</t>
-  </si>
-  <si>
-    <t>11198.5704031</t>
-  </si>
-  <si>
-    <t>12094.2372788</t>
-  </si>
-  <si>
-    <t>12859.8523312</t>
-  </si>
-  <si>
-    <t>13500.5338607</t>
-  </si>
-  <si>
-    <t>12634.3369914</t>
-  </si>
-  <si>
-    <t>13889.5843041</t>
-  </si>
-  <si>
-    <t>14997.5353788</t>
-  </si>
-  <si>
-    <t>15481.4189128</t>
-  </si>
-  <si>
-    <t>16497.6090535</t>
-  </si>
-  <si>
-    <t>16881.938148</t>
-  </si>
-  <si>
-    <t>17588.9312981</t>
-  </si>
-  <si>
-    <t>18227.3188966</t>
-  </si>
-  <si>
-    <t>19124.084544</t>
-  </si>
-  <si>
-    <t>20047.7928048</t>
-  </si>
-  <si>
-    <t>20453.7802151</t>
-  </si>
-  <si>
-    <t>20464.3180426</t>
-  </si>
-  <si>
-    <t>21700.855764</t>
+    <t>820.357302769065</t>
+  </si>
+  <si>
+    <t>1107.55874209976</t>
+  </si>
+  <si>
+    <t>1090.4380672581</t>
+  </si>
+  <si>
+    <t>1171.04388664939</t>
+  </si>
+  <si>
+    <t>1254.40185371742</t>
+  </si>
+  <si>
+    <t>1261.26137963331</t>
+  </si>
+  <si>
+    <t>1314.99437366312</t>
+  </si>
+  <si>
+    <t>1366.14655876651</t>
+  </si>
+  <si>
+    <t>1427.0303064877</t>
+  </si>
+  <si>
+    <t>1363.15211392193</t>
+  </si>
+  <si>
+    <t>1428.81642393374</t>
+  </si>
+  <si>
+    <t>1473.87914036513</t>
+  </si>
+  <si>
+    <t>1492.98111473602</t>
+  </si>
+  <si>
+    <t>1505.50227622661</t>
+  </si>
+  <si>
+    <t>1422.14929874806</t>
+  </si>
+  <si>
+    <t>1469.8881628887</t>
+  </si>
+  <si>
+    <t>1529.54379534206</t>
+  </si>
+  <si>
+    <t>1611.71969844718</t>
+  </si>
+  <si>
+    <t>1492.93697243396</t>
+  </si>
+  <si>
+    <t>1495.86427487404</t>
+  </si>
+  <si>
+    <t>1637.20979738464</t>
+  </si>
+  <si>
+    <t>1620.77742636312</t>
+  </si>
+  <si>
+    <t>1620.94456310234</t>
+  </si>
+  <si>
+    <t>1655.02532507323</t>
+  </si>
+  <si>
+    <t>1673.30316238728</t>
+  </si>
+  <si>
+    <t>1759.5970076149</t>
+  </si>
+  <si>
+    <t>1692.88664269553</t>
+  </si>
+  <si>
+    <t>2005.74912487929</t>
+  </si>
+  <si>
+    <t>1935.09637809883</t>
+  </si>
+  <si>
+    <t>1610.73119637171</t>
+  </si>
+  <si>
+    <t>1975.23613458624</t>
+  </si>
+  <si>
+    <t>2107.24748381484</t>
+  </si>
+  <si>
+    <t>1645.72199188762</t>
+  </si>
+  <si>
+    <t>1685.93874842345</t>
+  </si>
+  <si>
+    <t>915.765104808997</t>
+  </si>
+  <si>
+    <t>937.262686713904</t>
+  </si>
+  <si>
+    <t>1098.87154619638</t>
+  </si>
+  <si>
+    <t>1188.98073473397</t>
+  </si>
+  <si>
+    <t>998.088764411796</t>
+  </si>
+  <si>
+    <t>990.770029025074</t>
+  </si>
+  <si>
+    <t>1038.04102619505</t>
+  </si>
+  <si>
+    <t>1316.69107643201</t>
+  </si>
+  <si>
+    <t>1372.67979924528</t>
+  </si>
+  <si>
+    <t>1411.33360203502</t>
+  </si>
+  <si>
+    <t>1381.98276854527</t>
+  </si>
+  <si>
+    <t>1466.76773051341</t>
+  </si>
+  <si>
+    <t>1517.88386369625</t>
+  </si>
+  <si>
+    <t>1555.72719655056</t>
+  </si>
+  <si>
+    <t>1547.69177263856</t>
+  </si>
+  <si>
+    <t>1605.84677683157</t>
+  </si>
+  <si>
+    <t>1620.49016551383</t>
+  </si>
+  <si>
+    <t>1720.82412067271</t>
+  </si>
+  <si>
+    <t>1834.9778125414</t>
+  </si>
+  <si>
+    <t>1917.42831867999</t>
+  </si>
+  <si>
+    <t>2093.88798132793</t>
+  </si>
+  <si>
+    <t>2232.05350605592</t>
+  </si>
+  <si>
+    <t>2468.48358458018</t>
+  </si>
+  <si>
+    <t>2764.15336626157</t>
+  </si>
+  <si>
+    <t>2974.80727329566</t>
+  </si>
+  <si>
+    <t>3221.67449377507</t>
+  </si>
+  <si>
+    <t>3387.89053461182</t>
+  </si>
+  <si>
+    <t>3822.04579946319</t>
+  </si>
+  <si>
+    <t>4112.60132503237</t>
+  </si>
+  <si>
+    <t>4362.00674670652</t>
+  </si>
+  <si>
+    <t>4855.94072488161</t>
+  </si>
+  <si>
+    <t>5367.79488735547</t>
+  </si>
+  <si>
+    <t>5856.49651833948</t>
+  </si>
+  <si>
+    <t>6265.88620524998</t>
+  </si>
+  <si>
+    <t>6064.04009282181</t>
+  </si>
+  <si>
+    <t>6398.8511360217</t>
+  </si>
+  <si>
+    <t>6821.47493608378</t>
+  </si>
+  <si>
+    <t>7611.73413986103</t>
+  </si>
+  <si>
+    <t>8303.51898630704</t>
+  </si>
+  <si>
+    <t>8859.35533634623</t>
+  </si>
+  <si>
+    <t>9756.2054506927</t>
+  </si>
+  <si>
+    <t>10864.9741316052</t>
+  </si>
+  <si>
+    <t>12039.9457868355</t>
+  </si>
+  <si>
+    <t>12759.4896120752</t>
+  </si>
+  <si>
+    <t>13874</t>
+  </si>
+  <si>
+    <t>15056.1603265677</t>
+  </si>
+  <si>
+    <t>15712.0022092603</t>
+  </si>
+  <si>
+    <t>16503.4338578176</t>
+  </si>
+  <si>
+    <t>17720.3953083733</t>
+  </si>
+  <si>
+    <t>19089.2991255748</t>
+  </si>
+  <si>
+    <t>20204.5613654713</t>
+  </si>
+  <si>
+    <t>21055.9461564496</t>
+  </si>
+  <si>
+    <t>19624.6915876868</t>
+  </si>
+  <si>
+    <t>21540.6925752225</t>
+  </si>
+  <si>
+    <t>23108.0175367617</t>
+  </si>
+  <si>
+    <t>23804.4376851571</t>
+  </si>
+  <si>
+    <t>25250.637414954</t>
+  </si>
+  <si>
+    <t>25679.2465612007</t>
+  </si>
+  <si>
+    <t>26646.5032864598</t>
+  </si>
+  <si>
+    <t>27443.283376883</t>
+  </si>
+  <si>
+    <t>28516.4837755568</t>
+  </si>
+  <si>
+    <t>29716.5704202778</t>
+  </si>
+  <si>
+    <t>30117.7285767672</t>
+  </si>
+  <si>
+    <t>29967.5630702629</t>
+  </si>
+  <si>
+    <t>31537.7729271793</t>
+  </si>
+  <si>
+    <t>32225</t>
+  </si>
+  <si>
+    <t>32791</t>
+  </si>
+  <si>
+    <t>33588</t>
+  </si>
+  <si>
+    <t>34493</t>
+  </si>
+  <si>
+    <t>35269</t>
+  </si>
+  <si>
+    <t>36103</t>
   </si>
   <si>
     <t>Description</t>
@@ -2490,7 +2529,7 @@
         <v>1941.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
@@ -2507,7 +2546,7 @@
         <v>1942.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -2524,7 +2563,7 @@
         <v>1943.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126">
@@ -2575,7 +2614,7 @@
         <v>1946.0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129">
@@ -2592,7 +2631,7 @@
         <v>1947.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
@@ -2609,7 +2648,7 @@
         <v>1948.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
@@ -2626,7 +2665,7 @@
         <v>1949.0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132">
@@ -2643,7 +2682,7 @@
         <v>1950.0</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
@@ -2660,7 +2699,7 @@
         <v>1951.0</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134">
@@ -2677,7 +2716,7 @@
         <v>1952.0</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135">
@@ -2694,7 +2733,7 @@
         <v>1953.0</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136">
@@ -2711,7 +2750,7 @@
         <v>1954.0</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
@@ -2728,7 +2767,7 @@
         <v>1955.0</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138">
@@ -2745,7 +2784,7 @@
         <v>1956.0</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139">
@@ -2762,7 +2801,7 @@
         <v>1957.0</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140">
@@ -2779,7 +2818,7 @@
         <v>1958.0</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141">
@@ -2796,7 +2835,7 @@
         <v>1959.0</v>
       </c>
       <c r="E141" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142">
@@ -2813,7 +2852,7 @@
         <v>1960.0</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143">
@@ -2830,7 +2869,7 @@
         <v>1961.0</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144">
@@ -2847,7 +2886,7 @@
         <v>1962.0</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145">
@@ -2864,7 +2903,7 @@
         <v>1963.0</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
@@ -2881,7 +2920,7 @@
         <v>1964.0</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147">
@@ -2898,7 +2937,7 @@
         <v>1965.0</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148">
@@ -2915,7 +2954,7 @@
         <v>1966.0</v>
       </c>
       <c r="E148" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149">
@@ -2932,7 +2971,7 @@
         <v>1967.0</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150">
@@ -2949,7 +2988,7 @@
         <v>1968.0</v>
       </c>
       <c r="E150" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151">
@@ -2966,7 +3005,7 @@
         <v>1969.0</v>
       </c>
       <c r="E151" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
@@ -2983,7 +3022,7 @@
         <v>1970.0</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153">
@@ -3000,7 +3039,7 @@
         <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154">
@@ -3017,7 +3056,7 @@
         <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155">
@@ -3034,7 +3073,7 @@
         <v>1973.0</v>
       </c>
       <c r="E155" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156">
@@ -3051,7 +3090,7 @@
         <v>1974.0</v>
       </c>
       <c r="E156" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157">
@@ -3068,7 +3107,7 @@
         <v>1975.0</v>
       </c>
       <c r="E157" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158">
@@ -3085,7 +3124,7 @@
         <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159">
@@ -3102,7 +3141,7 @@
         <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160">
@@ -3119,7 +3158,7 @@
         <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161">
@@ -3136,7 +3175,7 @@
         <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162">
@@ -3153,7 +3192,7 @@
         <v>1980.0</v>
       </c>
       <c r="E162" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163">
@@ -3170,7 +3209,7 @@
         <v>1981.0</v>
       </c>
       <c r="E163" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164">
@@ -3187,7 +3226,7 @@
         <v>1982.0</v>
       </c>
       <c r="E164" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165">
@@ -3204,7 +3243,7 @@
         <v>1983.0</v>
       </c>
       <c r="E165" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166">
@@ -3221,7 +3260,7 @@
         <v>1984.0</v>
       </c>
       <c r="E166" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167">
@@ -3238,7 +3277,7 @@
         <v>1985.0</v>
       </c>
       <c r="E167" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168">
@@ -3255,7 +3294,7 @@
         <v>1986.0</v>
       </c>
       <c r="E168" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169">
@@ -3272,7 +3311,7 @@
         <v>1987.0</v>
       </c>
       <c r="E169" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170">
@@ -3289,7 +3328,7 @@
         <v>1988.0</v>
       </c>
       <c r="E170" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171">
@@ -3306,7 +3345,7 @@
         <v>1989.0</v>
       </c>
       <c r="E171" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172">
@@ -3323,7 +3362,7 @@
         <v>1990.0</v>
       </c>
       <c r="E172" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173">
@@ -3340,7 +3379,7 @@
         <v>1991.0</v>
       </c>
       <c r="E173" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174">
@@ -3357,7 +3396,7 @@
         <v>1992.0</v>
       </c>
       <c r="E174" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175">
@@ -3374,7 +3413,7 @@
         <v>1993.0</v>
       </c>
       <c r="E175" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176">
@@ -3391,7 +3430,7 @@
         <v>1994.0</v>
       </c>
       <c r="E176" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177">
@@ -3408,7 +3447,7 @@
         <v>1995.0</v>
       </c>
       <c r="E177" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178">
@@ -3425,7 +3464,7 @@
         <v>1996.0</v>
       </c>
       <c r="E178" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179">
@@ -3442,7 +3481,7 @@
         <v>1997.0</v>
       </c>
       <c r="E179" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180">
@@ -3459,7 +3498,7 @@
         <v>1998.0</v>
       </c>
       <c r="E180" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181">
@@ -3476,7 +3515,7 @@
         <v>1999.0</v>
       </c>
       <c r="E181" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182">
@@ -3493,7 +3532,7 @@
         <v>2000.0</v>
       </c>
       <c r="E182" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183">
@@ -3510,7 +3549,7 @@
         <v>2001.0</v>
       </c>
       <c r="E183" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184">
@@ -3527,7 +3566,7 @@
         <v>2002.0</v>
       </c>
       <c r="E184" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185">
@@ -3544,7 +3583,7 @@
         <v>2003.0</v>
       </c>
       <c r="E185" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186">
@@ -3561,7 +3600,7 @@
         <v>2004.0</v>
       </c>
       <c r="E186" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187">
@@ -3578,7 +3617,7 @@
         <v>2005.0</v>
       </c>
       <c r="E187" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188">
@@ -3595,7 +3634,7 @@
         <v>2006.0</v>
       </c>
       <c r="E188" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189">
@@ -3612,7 +3651,7 @@
         <v>2007.0</v>
       </c>
       <c r="E189" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190">
@@ -3629,7 +3668,7 @@
         <v>2008.0</v>
       </c>
       <c r="E190" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
@@ -3646,7 +3685,7 @@
         <v>2009.0</v>
       </c>
       <c r="E191" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192">
@@ -3663,7 +3702,109 @@
         <v>2010.0</v>
       </c>
       <c r="E192" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3681,50 +3822,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
